--- a/Tables/tables/T1_algo_benchmark.xlsx
+++ b/Tables/tables/T1_algo_benchmark.xlsx
@@ -36,7 +36,7 @@
       <color rgb="00000000"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="42">
     <fill>
       <patternFill/>
     </fill>
@@ -45,72 +45,92 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00C2DF23"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B8DE29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CAE11F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008BD646"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C8E020"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D5E21A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EAE51A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00BDDF26"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00C5E021"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00B0DD2F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C5E021"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0081D34D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C2DF23"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D0E11C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E7E419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B5DE2B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C0DF25"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A8DB34"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001F958B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="001FA088"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003FBC73"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0060CA60"/>
+        <fgColor rgb="0023A983"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004EC36B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006ECE58"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0028AE80"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003ABA76"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0069CD5B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0086D549"/>
       </patternFill>
     </fill>
     <fill>
@@ -120,57 +140,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002EB37C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005CC863"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007AD151"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001E9D89"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0022A884"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004AC16D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0069CD5B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003DBC74"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005EC962"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0044BF70"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001FA287"/>
+        <fgColor rgb="002AB07F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0058C765"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0077D153"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004CC26C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0052C569"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0025AC82"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0067CC5C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0089D548"/>
       </patternFill>
     </fill>
     <fill>
@@ -180,47 +185,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007FD34E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004EC36B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0021A585"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006CCD5A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0048C16E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0020A386"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0024868E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0025848E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00297A8E"/>
+        <fgColor rgb="0027AD81"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0056C667"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0020928C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0021908D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0024878E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00365D8D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0020938C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00228C8D"/>
       </patternFill>
     </fill>
     <fill>
@@ -230,37 +230,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0023888E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00277F8E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0046327E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00228D8D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0025858E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00287D8E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00453882"/>
+        <fgColor rgb="001F988B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0023898E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003C4F8A"/>
       </patternFill>
     </fill>
   </fills>
@@ -310,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -336,19 +316,19 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -366,22 +346,22 @@
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -399,58 +379,52 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -841,21 +815,21 @@
       <c r="D1" s="1" t="n"/>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>archiveII</t>
+          <t>ArchiveII</t>
         </is>
       </c>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>viral mRNA</t>
+          <t>Viral mRNA</t>
         </is>
       </c>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>long ncRNA</t>
+          <t>Long ncRNA</t>
         </is>
       </c>
       <c r="L1" s="1" t="n"/>
@@ -1081,25 +1055,25 @@
       <c r="F7" s="40" t="n">
         <v>0.8000213073008815</v>
       </c>
-      <c r="G7" s="41" t="n">
+      <c r="G7" s="21" t="n">
         <v>0.7733623156245326</v>
       </c>
-      <c r="H7" s="42" t="n">
+      <c r="H7" s="41" t="n">
         <v>0.5779202252626419</v>
       </c>
-      <c r="I7" s="43" t="n">
+      <c r="I7" s="42" t="n">
         <v>0.5873982317745685</v>
       </c>
-      <c r="J7" s="44" t="n">
+      <c r="J7" s="41" t="n">
         <v>0.5786280002444982</v>
       </c>
-      <c r="K7" s="45" t="n">
+      <c r="K7" s="43" t="n">
         <v>0.2189408208661038</v>
       </c>
-      <c r="L7" s="46" t="n">
+      <c r="L7" s="44" t="n">
         <v>0.143861064435138</v>
       </c>
-      <c r="M7" s="47" t="n">
+      <c r="M7" s="45" t="n">
         <v>0.1629953146912158</v>
       </c>
     </row>

--- a/Tables/tables/T1_algo_benchmark.xlsx
+++ b/Tables/tables/T1_algo_benchmark.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alberic/Desktop/Pro/RouskinLab/papers/Main_Paper/DL_paper_figures/Tables/tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852C626A-DC63-A641-A450-2039DB931440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -58,8 +64,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,7 +97,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,48 +124,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF21A585"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2AB07F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF24AA83"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4CC26C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF67CC5C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF58C765"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF20928C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF1FA088"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF28AE80"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF21A685"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4CC26C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF67CC5C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF58C765"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF20928C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF1F988B"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -178,19 +190,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF23A983"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3ABA76"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF2AB07F"/>
+        <fgColor rgb="FF25AB82"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF35B779"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,7 +244,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4EC36B"/>
+        <fgColor rgb="FF5EC962"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70CF57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF65CB5E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,13 +316,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6ECE58"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF86D549"/>
+        <fgColor rgb="FF95D840"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBADE28"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5DB36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,141 +390,147 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -509,11 +539,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -555,7 +593,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -587,9 +625,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -621,6 +677,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -796,39 +870,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="13" width="7.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -867,173 +947,173 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.8986479575603695</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.9105733287334442</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.8901117855913183</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.5212220018126176</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.5904885499848652</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.5511429458122018</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0.6873212480917573</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0.7445963995531202</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0.7127386206761003</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0.459832160671552</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0.5203452264269193</v>
-      </c>
-      <c r="M4" s="13">
-        <v>0.4871882696946462</v>
+      <c r="B4" s="3">
+        <v>0.89864795756036953</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.91057332873344421</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.89011178559131832</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.54643776839616676</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.59998892168499696</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.56946356530672892</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.68732124809175732</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.74459639955312018</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.71273862067610028</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.45983216067155203</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0.52034522642691927</v>
+      </c>
+      <c r="M4" s="14">
+        <v>0.48718826969464618</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="14">
-        <v>0.8827948560569919</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0.909429883461627</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0.8803427294733819</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0.5644649315677898</v>
-      </c>
-      <c r="F5" s="17">
-        <v>0.6456096140972976</v>
-      </c>
-      <c r="G5" s="18">
-        <v>0.5997287108234957</v>
+      <c r="B5" s="15">
+        <v>0.88279485605699193</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.90942988346162701</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.88034272947338188</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.57157776482441802</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0.63397453057207109</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.59834372230554767</v>
       </c>
       <c r="H5" s="19">
-        <v>0.7501915983855725</v>
+        <v>0.75019159838557248</v>
       </c>
       <c r="I5" s="20">
-        <v>0.8054626516997814</v>
+        <v>0.80546265169978137</v>
       </c>
       <c r="J5" s="21">
-        <v>0.7744681388139725</v>
+        <v>0.77446813881397247</v>
       </c>
       <c r="K5" s="22">
-        <v>0.4499743158618609</v>
+        <v>0.44997431586186087</v>
       </c>
       <c r="L5" s="23">
-        <v>0.466776779294014</v>
+        <v>0.46677677929401401</v>
       </c>
       <c r="M5" s="24">
-        <v>0.4565821915864944</v>
+        <v>0.45658219158649438</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="25">
-        <v>0.9135778193742456</v>
+        <v>0.91357781937424565</v>
       </c>
       <c r="C6" s="26">
-        <v>0.9276968566165573</v>
+        <v>0.92769685661655732</v>
       </c>
       <c r="D6" s="27">
-        <v>0.9039317269840937</v>
+        <v>0.90393172698409374</v>
       </c>
       <c r="E6" s="28">
-        <v>0.6906998414483111</v>
+        <v>0.728945273422133</v>
       </c>
       <c r="F6" s="29">
-        <v>0.7493227866325675</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0.7138309751178177</v>
-      </c>
-      <c r="H6" s="30">
-        <v>0.7026699289679528</v>
-      </c>
-      <c r="I6" s="31">
-        <v>0.7204473091289401</v>
-      </c>
-      <c r="J6" s="32">
-        <v>0.7095186714082956</v>
-      </c>
-      <c r="K6" s="33">
-        <v>0.4100692297021548</v>
-      </c>
-      <c r="L6" s="34">
-        <v>0.4291893312086661</v>
-      </c>
-      <c r="M6" s="35">
-        <v>0.4185908023267985</v>
+        <v>0.76176731848351598</v>
+      </c>
+      <c r="G6" s="30">
+        <v>0.74136501772201324</v>
+      </c>
+      <c r="H6" s="31">
+        <v>0.70266992896795277</v>
+      </c>
+      <c r="I6" s="32">
+        <v>0.72044730912894006</v>
+      </c>
+      <c r="J6" s="33">
+        <v>0.70951867140829561</v>
+      </c>
+      <c r="K6" s="34">
+        <v>0.41006922970215481</v>
+      </c>
+      <c r="L6" s="35">
+        <v>0.42918933120866609</v>
+      </c>
+      <c r="M6" s="36">
+        <v>0.41859080232679852</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="36">
-        <v>0.8092663101205936</v>
-      </c>
-      <c r="C7" s="37">
-        <v>0.9628404659434847</v>
-      </c>
-      <c r="D7" s="38">
-        <v>0.8681203242757417</v>
-      </c>
-      <c r="E7" s="39">
-        <v>0.7565479003627535</v>
-      </c>
-      <c r="F7" s="40">
-        <v>0.8000213073008815</v>
-      </c>
-      <c r="G7" s="21">
-        <v>0.7733623156245326</v>
-      </c>
-      <c r="H7" s="41">
-        <v>0.5779202252626419</v>
-      </c>
-      <c r="I7" s="42">
-        <v>0.5873982317745685</v>
-      </c>
-      <c r="J7" s="41">
-        <v>0.5786280002444982</v>
-      </c>
-      <c r="K7" s="43">
-        <v>0.2189408208661038</v>
-      </c>
-      <c r="L7" s="44">
-        <v>0.143861064435138</v>
-      </c>
-      <c r="M7" s="45">
-        <v>0.1629953146912158</v>
+      <c r="B7" s="37">
+        <v>0.80926631012059358</v>
+      </c>
+      <c r="C7" s="38">
+        <v>0.96284046594348471</v>
+      </c>
+      <c r="D7" s="39">
+        <v>0.86812032427574171</v>
+      </c>
+      <c r="E7" s="40">
+        <v>0.82445320335997119</v>
+      </c>
+      <c r="F7" s="41">
+        <v>0.88421792099713181</v>
+      </c>
+      <c r="G7" s="42">
+        <v>0.84994587030946867</v>
+      </c>
+      <c r="H7" s="43">
+        <v>0.57792022526264186</v>
+      </c>
+      <c r="I7" s="44">
+        <v>0.58739823177456851</v>
+      </c>
+      <c r="J7" s="43">
+        <v>0.57862800024449823</v>
+      </c>
+      <c r="K7" s="45">
+        <v>0.21894082086610381</v>
+      </c>
+      <c r="L7" s="46">
+        <v>0.14386106443513799</v>
+      </c>
+      <c r="M7" s="47">
+        <v>0.16299531469121581</v>
       </c>
     </row>
   </sheetData>
@@ -1044,5 +1124,6 @@
     <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Tables/tables/T1_algo_benchmark.xlsx
+++ b/Tables/tables/T1_algo_benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alberic/Desktop/Pro/RouskinLab/papers/Main_Paper/DL_paper_figures/Tables/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852C626A-DC63-A641-A450-2039DB931440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED87B607-F7F8-AC4D-9C93-E6FEE6C1BA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,78 +130,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF2CB17E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF25AB82"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4CC26C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF67CC5C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF58C765"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF20928C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1FA088"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F988B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8DE29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF37B878"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF2AB07F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF24AA83"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4CC26C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF67CC5C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF58C765"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF20928C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1FA088"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1F988B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB8DE29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC8E020"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF25AB82"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF35B779"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF69CD5B"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -227,6 +221,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF20938C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCDE11D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -443,7 +443,7 @@
     <xf numFmtId="2" fontId="2" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -452,19 +452,16 @@
     <xf numFmtId="2" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -873,14 +870,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="M8" sqref="A1:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="13" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="13" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -957,22 +954,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>0.89864795756036953</v>
+        <v>0.90033578311248808</v>
       </c>
       <c r="C4" s="4">
-        <v>0.91057332873344421</v>
+        <v>0.91219185501934807</v>
       </c>
       <c r="D4" s="5">
-        <v>0.89011178559131832</v>
+        <v>0.89170967726640293</v>
       </c>
       <c r="E4" s="6">
-        <v>0.54643776839616676</v>
+        <v>0.54852504470393904</v>
       </c>
       <c r="F4" s="7">
-        <v>0.59998892168499696</v>
+        <v>0.60238973867973789</v>
       </c>
       <c r="G4" s="8">
-        <v>0.56946356530672892</v>
+        <v>0.57163130969627141</v>
       </c>
       <c r="H4" s="9">
         <v>0.68732124809175732</v>
@@ -998,39 +995,39 @@
         <v>10</v>
       </c>
       <c r="B5" s="15">
-        <v>0.88279485605699193</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0.90942988346162701</v>
+        <v>0.88396778766055284</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.91054306778757055</v>
       </c>
       <c r="D5" s="15">
-        <v>0.88034272947338188</v>
-      </c>
-      <c r="E5" s="17">
-        <v>0.57157776482441802</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0.63397453057207109</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.59834372230554767</v>
-      </c>
-      <c r="H5" s="19">
+        <v>0.88143112399208712</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.57343671028212106</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.63623920546659773</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.60031536271082631</v>
+      </c>
+      <c r="H5" s="18">
         <v>0.75019159838557248</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <v>0.80546265169978137</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="20">
         <v>0.77446813881397247</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="21">
         <v>0.44997431586186087</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="22">
         <v>0.46677677929401401</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="23">
         <v>0.45658219158649438</v>
       </c>
     </row>
@@ -1038,40 +1035,40 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="25">
-        <v>0.91357781937424565</v>
-      </c>
-      <c r="C6" s="26">
-        <v>0.92769685661655732</v>
-      </c>
-      <c r="D6" s="27">
-        <v>0.90393172698409374</v>
-      </c>
-      <c r="E6" s="28">
-        <v>0.728945273422133</v>
-      </c>
-      <c r="F6" s="29">
-        <v>0.76176731848351598</v>
-      </c>
-      <c r="G6" s="30">
-        <v>0.74136501772201324</v>
-      </c>
-      <c r="H6" s="31">
+      <c r="B6" s="24">
+        <v>0.91454696874160546</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.92861180776134344</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0.90481692594541629</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0.72762461304753068</v>
+      </c>
+      <c r="F6" s="28">
+        <v>0.76021576209953334</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0.73983789183398385</v>
+      </c>
+      <c r="H6" s="30">
         <v>0.70266992896795277</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="31">
         <v>0.72044730912894006</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="32">
         <v>0.70951867140829561</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="33">
         <v>0.41006922970215481</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="34">
         <v>0.42918933120866609</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M6" s="35">
         <v>0.41859080232679852</v>
       </c>
     </row>
@@ -1079,40 +1076,40 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="37">
-        <v>0.80926631012059358</v>
-      </c>
-      <c r="C7" s="38">
-        <v>0.96284046594348471</v>
-      </c>
-      <c r="D7" s="39">
-        <v>0.86812032427574171</v>
-      </c>
-      <c r="E7" s="40">
-        <v>0.82445320335997119</v>
-      </c>
-      <c r="F7" s="41">
-        <v>0.88421792099713181</v>
-      </c>
-      <c r="G7" s="42">
-        <v>0.84994587030946867</v>
-      </c>
-      <c r="H7" s="43">
+      <c r="B7" s="36">
+        <v>0.81025983207467678</v>
+      </c>
+      <c r="C7" s="37">
+        <v>0.96503088658346847</v>
+      </c>
+      <c r="D7" s="38">
+        <v>0.86977506958056183</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0.82521732203509712</v>
+      </c>
+      <c r="F7" s="40">
+        <v>0.88659418214217689</v>
+      </c>
+      <c r="G7" s="41">
+        <v>0.85151540817519822</v>
+      </c>
+      <c r="H7" s="42">
         <v>0.57792022526264186</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="43">
         <v>0.58739823177456851</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="42">
         <v>0.57862800024449823</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="44">
         <v>0.21894082086610381</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7" s="45">
         <v>0.14386106443513799</v>
       </c>
-      <c r="M7" s="47">
+      <c r="M7" s="46">
         <v>0.16299531469121581</v>
       </c>
     </row>
